--- a/team_specific_matrix/Ark.-Pine Bluff_B.xlsx
+++ b/team_specific_matrix/Ark.-Pine Bluff_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1649484536082474</v>
+        <v>0.1535433070866142</v>
       </c>
       <c r="C2">
-        <v>0.5927835051546392</v>
+        <v>0.6181102362204725</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03608247422680412</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1082474226804124</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09793814432989691</v>
+        <v>0.09055118110236221</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6859504132231405</v>
+        <v>0.6848484848484848</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2231404958677686</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04195804195804196</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01398601398601399</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03496503496503497</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3216783216783217</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02797202797202797</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1678321678321678</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.06989247311827956</v>
       </c>
       <c r="S6">
-        <v>0.3146853146853147</v>
+        <v>0.3118279569892473</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06896551724137931</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02068965517241379</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="E7">
-        <v>0.006896551724137931</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="F7">
-        <v>0.06206896551724138</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2206896551724138</v>
+        <v>0.2110552763819095</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02758620689655172</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1655172413793103</v>
+        <v>0.1557788944723618</v>
       </c>
       <c r="R7">
-        <v>0.0896551724137931</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="S7">
-        <v>0.3379310344827586</v>
+        <v>0.3417085427135678</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1206030150753769</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01507537688442211</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03015075376884422</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1658291457286432</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03015075376884422</v>
+        <v>0.03065134099616858</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1909547738693467</v>
+        <v>0.2030651340996169</v>
       </c>
       <c r="R8">
-        <v>0.09045226130653267</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="S8">
-        <v>0.3567839195979899</v>
+        <v>0.3563218390804598</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1481481481481481</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01851851851851852</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04938271604938271</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1481481481481481</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04320987654320987</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1604938271604938</v>
+        <v>0.1844660194174757</v>
       </c>
       <c r="R9">
-        <v>0.09259259259259259</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="S9">
-        <v>0.3395061728395062</v>
+        <v>0.3300970873786408</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1034103410341034</v>
+        <v>0.11346316680779</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0319031903190319</v>
+        <v>0.03048264182895851</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.066006600660066</v>
+        <v>0.05927180355630821</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1518151815181518</v>
+        <v>0.1456392887383573</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0187018701870187</v>
+        <v>0.01862828111769687</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2486248624862486</v>
+        <v>0.2413209144792549</v>
       </c>
       <c r="R10">
-        <v>0.0737073707370737</v>
+        <v>0.07620660457239628</v>
       </c>
       <c r="S10">
-        <v>0.3058305830583058</v>
+        <v>0.3149872988992379</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1348837209302326</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08837209302325581</v>
+        <v>0.0912280701754386</v>
       </c>
       <c r="K11">
-        <v>0.1767441860465116</v>
+        <v>0.1719298245614035</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7480916030534351</v>
+        <v>0.770949720670391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1984732824427481</v>
+        <v>0.1843575418994413</v>
       </c>
       <c r="K12">
-        <v>0.007633587786259542</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.03053435114503817</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01526717557251908</v>
+        <v>0.01675977653631285</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03333333333333333</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007462686567164179</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1044776119402985</v>
+        <v>0.1040462427745665</v>
       </c>
       <c r="I15">
-        <v>0.1194029850746269</v>
+        <v>0.115606936416185</v>
       </c>
       <c r="J15">
-        <v>0.4029850746268657</v>
+        <v>0.3988439306358382</v>
       </c>
       <c r="K15">
-        <v>0.05223880597014925</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007462686567164179</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05970149253731343</v>
+        <v>0.06936416184971098</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2462686567164179</v>
+        <v>0.2543352601156069</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0310077519379845</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.08527131782945736</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="I16">
-        <v>0.1085271317829457</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="J16">
-        <v>0.5193798449612403</v>
+        <v>0.4855491329479769</v>
       </c>
       <c r="K16">
-        <v>0.1395348837209302</v>
+        <v>0.1271676300578035</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007751937984496124</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.01550387596899225</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09302325581395349</v>
+        <v>0.09248554913294797</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02083333333333333</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1517857142857143</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="I17">
-        <v>0.09523809523809523</v>
+        <v>0.1077981651376147</v>
       </c>
       <c r="J17">
-        <v>0.4166666666666667</v>
+        <v>0.4243119266055046</v>
       </c>
       <c r="K17">
-        <v>0.1398809523809524</v>
+        <v>0.1353211009174312</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01785714285714286</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="N17">
-        <v>0.005952380952380952</v>
+        <v>0.006880733944954129</v>
       </c>
       <c r="O17">
-        <v>0.04761904761904762</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1041666666666667</v>
+        <v>0.09174311926605505</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02419354838709677</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1048387096774194</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="I18">
-        <v>0.08064516129032258</v>
+        <v>0.08588957055214724</v>
       </c>
       <c r="J18">
-        <v>0.532258064516129</v>
+        <v>0.5153374233128835</v>
       </c>
       <c r="K18">
-        <v>0.09677419354838709</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04838709677419355</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="N18">
-        <v>0.008064516129032258</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="O18">
-        <v>0.04032258064516129</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06451612903225806</v>
+        <v>0.07975460122699386</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03188405797101449</v>
+        <v>0.02850877192982456</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1608695652173913</v>
+        <v>0.1589912280701754</v>
       </c>
       <c r="I19">
-        <v>0.1260869565217391</v>
+        <v>0.1129385964912281</v>
       </c>
       <c r="J19">
-        <v>0.3768115942028986</v>
+        <v>0.3881578947368421</v>
       </c>
       <c r="K19">
-        <v>0.127536231884058</v>
+        <v>0.1359649122807018</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02318840579710145</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="N19">
-        <v>0.002898550724637681</v>
+        <v>0.002192982456140351</v>
       </c>
       <c r="O19">
-        <v>0.06956521739130435</v>
+        <v>0.0668859649122807</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08115942028985507</v>
+        <v>0.08662280701754387</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ark.-Pine Bluff_B.xlsx
+++ b/team_specific_matrix/Ark.-Pine Bluff_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1535433070866142</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="C2">
-        <v>0.6181102362204725</v>
+        <v>0.6199261992619927</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03149606299212598</v>
+        <v>0.02952029520295203</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1062992125984252</v>
+        <v>0.1107011070110701</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09055118110236221</v>
+        <v>0.08487084870848709</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01212121212121212</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09090909090909091</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6848484848484848</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2121212121212121</v>
+        <v>0.2134831460674157</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7254901960784313</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2156862745098039</v>
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03763440860215054</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01612903225806452</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04838709677419355</v>
+        <v>0.04326923076923077</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3225806451612903</v>
+        <v>0.3173076923076923</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02150537634408602</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1720430107526882</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="R6">
-        <v>0.06989247311827956</v>
+        <v>0.07211538461538461</v>
       </c>
       <c r="S6">
-        <v>0.3118279569892473</v>
+        <v>0.3173076923076923</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06532663316582915</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02010050251256281</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E7">
-        <v>0.01005025125628141</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="F7">
-        <v>0.06532663316582915</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2110552763819095</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02512562814070352</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1557788944723618</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="R7">
-        <v>0.1055276381909548</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="S7">
-        <v>0.3417085427135678</v>
+        <v>0.3577981651376147</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.103448275862069</v>
+        <v>0.1023890784982935</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01915708812260536</v>
+        <v>0.02389078498293516</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04597701149425287</v>
+        <v>0.05119453924914676</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1609195402298851</v>
+        <v>0.1467576791808874</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03065134099616858</v>
+        <v>0.0273037542662116</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2030651340996169</v>
+        <v>0.1945392491467577</v>
       </c>
       <c r="R8">
-        <v>0.08045977011494253</v>
+        <v>0.09215017064846416</v>
       </c>
       <c r="S8">
-        <v>0.3563218390804598</v>
+        <v>0.3617747440273038</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1359223300970874</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01941747572815534</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05825242718446602</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1407766990291262</v>
+        <v>0.1286307053941909</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03883495145631068</v>
+        <v>0.04149377593360996</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1844660194174757</v>
+        <v>0.1825726141078838</v>
       </c>
       <c r="R9">
-        <v>0.09223300970873786</v>
+        <v>0.08713692946058091</v>
       </c>
       <c r="S9">
-        <v>0.3300970873786408</v>
+        <v>0.3692946058091287</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.11346316680779</v>
+        <v>0.1072243346007605</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03048264182895851</v>
+        <v>0.02965779467680608</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05927180355630821</v>
+        <v>0.05779467680608365</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1456392887383573</v>
+        <v>0.1422053231939163</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01862828111769687</v>
+        <v>0.02129277566539924</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2413209144792549</v>
+        <v>0.2387832699619772</v>
       </c>
       <c r="R10">
-        <v>0.07620660457239628</v>
+        <v>0.07680608365019011</v>
       </c>
       <c r="S10">
-        <v>0.3149872988992379</v>
+        <v>0.3262357414448669</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1263157894736842</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0912280701754386</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="K11">
-        <v>0.1719298245614035</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L11">
-        <v>0.6105263157894737</v>
+        <v>0.6158730158730159</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.770949720670391</v>
+        <v>0.775</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1843575418994413</v>
+        <v>0.185</v>
       </c>
       <c r="K12">
-        <v>0.00558659217877095</v>
+        <v>0.005</v>
       </c>
       <c r="L12">
-        <v>0.0223463687150838</v>
+        <v>0.02</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01675977653631285</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005780346820809248</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1040462427745665</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="I15">
-        <v>0.115606936416185</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="J15">
-        <v>0.3988439306358382</v>
+        <v>0.3842364532019704</v>
       </c>
       <c r="K15">
-        <v>0.04624277456647399</v>
+        <v>0.03940886699507389</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005780346820809248</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06936416184971098</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2543352601156069</v>
+        <v>0.2364532019704433</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02312138728323699</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1213872832369942</v>
+        <v>0.1216931216931217</v>
       </c>
       <c r="I16">
-        <v>0.1098265895953757</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="J16">
-        <v>0.4855491329479769</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="K16">
-        <v>0.1271676300578035</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005780346820809248</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03468208092485549</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09248554913294797</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02752293577981652</v>
+        <v>0.02505219206680585</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1422018348623853</v>
+        <v>0.1461377870563674</v>
       </c>
       <c r="I17">
-        <v>0.1077981651376147</v>
+        <v>0.1148225469728601</v>
       </c>
       <c r="J17">
-        <v>0.4243119266055046</v>
+        <v>0.4154488517745303</v>
       </c>
       <c r="K17">
-        <v>0.1353211009174312</v>
+        <v>0.1377870563674322</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01834862385321101</v>
+        <v>0.01670146137787056</v>
       </c>
       <c r="N17">
-        <v>0.006880733944954129</v>
+        <v>0.006263048016701462</v>
       </c>
       <c r="O17">
-        <v>0.04587155963302753</v>
+        <v>0.04801670146137787</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09174311926605505</v>
+        <v>0.08977035490605428</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01840490797546012</v>
+        <v>0.0213903743315508</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1165644171779141</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="I18">
-        <v>0.08588957055214724</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J18">
-        <v>0.5153374233128835</v>
+        <v>0.5187165775401069</v>
       </c>
       <c r="K18">
-        <v>0.09202453987730061</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04294478527607362</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="N18">
-        <v>0.006134969325153374</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="O18">
-        <v>0.04294478527607362</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07975460122699386</v>
+        <v>0.0748663101604278</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02850877192982456</v>
+        <v>0.02783109404990403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1589912280701754</v>
+        <v>0.1497120921305182</v>
       </c>
       <c r="I19">
-        <v>0.1129385964912281</v>
+        <v>0.1151631477927063</v>
       </c>
       <c r="J19">
-        <v>0.3881578947368421</v>
+        <v>0.3973128598848368</v>
       </c>
       <c r="K19">
-        <v>0.1359649122807018</v>
+        <v>0.1314779270633397</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01973684210526316</v>
+        <v>0.01919385796545105</v>
       </c>
       <c r="N19">
-        <v>0.002192982456140351</v>
+        <v>0.002879078694817658</v>
       </c>
       <c r="O19">
-        <v>0.0668859649122807</v>
+        <v>0.07005758157389635</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08662280701754387</v>
+        <v>0.08637236084452975</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ark.-Pine Bluff_B.xlsx
+++ b/team_specific_matrix/Ark.-Pine Bluff_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1549815498154982</v>
+        <v>0.1541218637992832</v>
       </c>
       <c r="C2">
-        <v>0.6199261992619927</v>
+        <v>0.6200716845878136</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02952029520295203</v>
+        <v>0.02867383512544803</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1107011070110701</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08487084870848709</v>
+        <v>0.08602150537634409</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01685393258426966</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08426966292134831</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6853932584269663</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2134831460674157</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03846153846153846</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01923076923076923</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04326923076923077</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3173076923076923</v>
+        <v>0.3116279069767442</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02403846153846154</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1682692307692308</v>
+        <v>0.1767441860465116</v>
       </c>
       <c r="R6">
-        <v>0.07211538461538461</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="S6">
-        <v>0.3173076923076923</v>
+        <v>0.3209302325581395</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06422018348623854</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01834862385321101</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="E7">
-        <v>0.009174311926605505</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="F7">
-        <v>0.06880733944954129</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2018348623853211</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02293577981651376</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1467889908256881</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="R7">
-        <v>0.1100917431192661</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="S7">
-        <v>0.3577981651376147</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1023890784982935</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02389078498293516</v>
+        <v>0.02295081967213115</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05119453924914676</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1467576791808874</v>
+        <v>0.1540983606557377</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0273037542662116</v>
+        <v>0.02622950819672131</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1945392491467577</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="R8">
-        <v>0.09215017064846416</v>
+        <v>0.09508196721311475</v>
       </c>
       <c r="S8">
-        <v>0.3617747440273038</v>
+        <v>0.3573770491803279</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1161825726141079</v>
+        <v>0.11284046692607</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02074688796680498</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05394190871369295</v>
+        <v>0.05447470817120623</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1286307053941909</v>
+        <v>0.1400778210116732</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04149377593360996</v>
+        <v>0.04280155642023346</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1825726141078838</v>
+        <v>0.1828793774319066</v>
       </c>
       <c r="R9">
-        <v>0.08713692946058091</v>
+        <v>0.08560311284046693</v>
       </c>
       <c r="S9">
-        <v>0.3692946058091287</v>
+        <v>0.3618677042801556</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1072243346007605</v>
+        <v>0.1068032187271397</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02965779467680608</v>
+        <v>0.02852962692026335</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05779467680608365</v>
+        <v>0.0592538405267008</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1422053231939163</v>
+        <v>0.141185076810534</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02129277566539924</v>
+        <v>0.02121433796634967</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2387832699619772</v>
+        <v>0.2392099487929773</v>
       </c>
       <c r="R10">
-        <v>0.07680608365019011</v>
+        <v>0.07973664959765911</v>
       </c>
       <c r="S10">
-        <v>0.3262357414448669</v>
+        <v>0.324067300658376</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1238095238095238</v>
+        <v>0.121875</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08888888888888889</v>
+        <v>0.090625</v>
       </c>
       <c r="K11">
-        <v>0.1714285714285714</v>
+        <v>0.171875</v>
       </c>
       <c r="L11">
-        <v>0.6158730158730159</v>
+        <v>0.615625</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.775</v>
+        <v>0.7696078431372549</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.185</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="K12">
-        <v>0.005</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L12">
-        <v>0.02</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.015</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="G13">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2368421052631579</v>
+        <v>0.225</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01477832512315271</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1330049261083744</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.1182266009852217</v>
+        <v>0.1238095238095238</v>
       </c>
       <c r="J15">
-        <v>0.3842364532019704</v>
+        <v>0.3761904761904762</v>
       </c>
       <c r="K15">
-        <v>0.03940886699507389</v>
+        <v>0.0380952380952381</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004926108374384237</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2364532019704433</v>
+        <v>0.2428571428571429</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02645502645502645</v>
+        <v>0.02590673575129534</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1216931216931217</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="I16">
-        <v>0.1164021164021164</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="J16">
-        <v>0.4814814814814815</v>
+        <v>0.4870466321243523</v>
       </c>
       <c r="K16">
-        <v>0.1164021164021164</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005291005291005291</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03703703703703703</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09523809523809523</v>
+        <v>0.09326424870466321</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02505219206680585</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1461377870563674</v>
+        <v>0.151394422310757</v>
       </c>
       <c r="I17">
-        <v>0.1148225469728601</v>
+        <v>0.1175298804780877</v>
       </c>
       <c r="J17">
-        <v>0.4154488517745303</v>
+        <v>0.4123505976095618</v>
       </c>
       <c r="K17">
-        <v>0.1377870563674322</v>
+        <v>0.1334661354581673</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01670146137787056</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="N17">
-        <v>0.006263048016701462</v>
+        <v>0.00597609561752988</v>
       </c>
       <c r="O17">
-        <v>0.04801670146137787</v>
+        <v>0.049800796812749</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08977035490605428</v>
+        <v>0.08964143426294821</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0213903743315508</v>
+        <v>0.02030456852791878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1122994652406417</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="J18">
-        <v>0.5187165775401069</v>
+        <v>0.5279187817258884</v>
       </c>
       <c r="K18">
-        <v>0.1016042780748663</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0374331550802139</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="N18">
-        <v>0.0053475935828877</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="O18">
-        <v>0.0374331550802139</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0748663101604278</v>
+        <v>0.07614213197969544</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02783109404990403</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1497120921305182</v>
+        <v>0.1490740740740741</v>
       </c>
       <c r="I19">
-        <v>0.1151631477927063</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="J19">
-        <v>0.3973128598848368</v>
+        <v>0.3962962962962963</v>
       </c>
       <c r="K19">
-        <v>0.1314779270633397</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01919385796545105</v>
+        <v>0.02037037037037037</v>
       </c>
       <c r="N19">
-        <v>0.002879078694817658</v>
+        <v>0.002777777777777778</v>
       </c>
       <c r="O19">
-        <v>0.07005758157389635</v>
+        <v>0.06759259259259259</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08637236084452975</v>
+        <v>0.08796296296296297</v>
       </c>
     </row>
   </sheetData>
